--- a/QA/QA.xlsx
+++ b/QA/QA.xlsx
@@ -2,12 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +21,185 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Test Case1</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Test_01</t>
+  </si>
+  <si>
+    <t>Created by</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Created on</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Modified by</t>
+  </si>
+  <si>
+    <t>Last modified on</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expectations</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Test Case2</t>
+  </si>
+  <si>
+    <t>Test_02</t>
+  </si>
+  <si>
+    <t>Test Case3</t>
+  </si>
+  <si>
+    <t>Test_03</t>
+  </si>
+  <si>
+    <t>Start Button</t>
+  </si>
+  <si>
+    <t>Start the quiz</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Proceeds to the next question</t>
+  </si>
+  <si>
+    <t>Start from the beginning</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Tests if the main menu is working fine</t>
+  </si>
+  <si>
+    <t>Kliment Tenev</t>
+  </si>
+  <si>
+    <t>15.05.2022  13:20</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Start game</t>
+  </si>
+  <si>
+    <t>Exit game</t>
+  </si>
+  <si>
+    <t>Help menu</t>
+  </si>
+  <si>
+    <t>Game rules</t>
+  </si>
+  <si>
+    <t>Start the game</t>
+  </si>
+  <si>
+    <t>Exit the game</t>
+  </si>
+  <si>
+    <t>go to the help menu</t>
+  </si>
+  <si>
+    <t>go to the rules  menu</t>
+  </si>
+  <si>
+    <t>15.05.2022  13:30</t>
+  </si>
+  <si>
+    <t>Random function</t>
+  </si>
+  <si>
+    <t>15.05.2022  13:40</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Random card</t>
+  </si>
+  <si>
+    <t>Grit</t>
+  </si>
+  <si>
+    <t>Random grit</t>
+  </si>
+  <si>
+    <t>Tests if the card restribution is randomised</t>
+  </si>
+  <si>
+    <t>test Details</t>
+  </si>
+  <si>
+    <t>Exit options</t>
+  </si>
+  <si>
+    <t>Tests if the player can exit from the different menus</t>
+  </si>
+  <si>
+    <t>15.05.2022  13:50</t>
+  </si>
+  <si>
+    <t>Exit button</t>
+  </si>
+  <si>
+    <t>Exit button help menu</t>
+  </si>
+  <si>
+    <t>Exit button rules  menu</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29,15 +213,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +259,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,7 +424,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +459,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +641,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="47" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>